--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\eclipse-workspace\DATADRIVEN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D40AD8-12A7-43B6-B6A8-6E4913A1EA3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA51B98-50BB-4516-8B89-B33C29D1F9ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>UserName</t>
   </si>
@@ -367,44 +367,44 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" customWidth="true" width="39.140625" collapsed="false"/>
+    <col min="1" max="3" customWidth="true" width="39.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>6</v>
       </c>
     </row>
